--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ptprz1-Ncam1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="H2">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="I2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="J2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.573984787646013</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="N2">
-        <v>0.573984787646013</v>
+        <v>2.101313</v>
       </c>
       <c r="O2">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="P2">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="Q2">
-        <v>0.03971463925868961</v>
+        <v>0.07219854640855554</v>
       </c>
       <c r="R2">
-        <v>0.03971463925868961</v>
+        <v>0.6497869176769999</v>
       </c>
       <c r="S2">
-        <v>0.000294059039264295</v>
+        <v>0.0005082786144447504</v>
       </c>
       <c r="T2">
-        <v>0.000294059039264295</v>
+        <v>0.0005082786144447504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="H3">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="I3">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="J3">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.208459423026426</v>
+        <v>0.237305</v>
       </c>
       <c r="N3">
-        <v>0.208459423026426</v>
+        <v>0.711915</v>
       </c>
       <c r="O3">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="P3">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="Q3">
-        <v>0.01442353693644374</v>
+        <v>0.02446052928166666</v>
       </c>
       <c r="R3">
-        <v>0.01442353693644374</v>
+        <v>0.220144763535</v>
       </c>
       <c r="S3">
-        <v>0.0001067961712228244</v>
+        <v>0.0001722024133493842</v>
       </c>
       <c r="T3">
-        <v>0.0001067961712228244</v>
+        <v>0.0001722024133493842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="H4">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="I4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="J4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.5094222590766</v>
+        <v>14.58625866666667</v>
       </c>
       <c r="N4">
-        <v>14.5094222590766</v>
+        <v>43.758776</v>
       </c>
       <c r="O4">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="P4">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="Q4">
-        <v>1.003922897041313</v>
+        <v>1.503498060411555</v>
       </c>
       <c r="R4">
-        <v>1.003922897041313</v>
+        <v>13.531482543704</v>
       </c>
       <c r="S4">
-        <v>0.007433344683718952</v>
+        <v>0.01058464399881322</v>
       </c>
       <c r="T4">
-        <v>0.007433344683718952</v>
+        <v>0.01058464399881322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="H5">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="I5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="J5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.573984787646013</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="N5">
-        <v>0.573984787646013</v>
+        <v>2.101313</v>
       </c>
       <c r="O5">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="P5">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="Q5">
-        <v>5.029678508095301</v>
+        <v>6.336833420660445</v>
       </c>
       <c r="R5">
-        <v>5.029678508095301</v>
+        <v>57.031500785944</v>
       </c>
       <c r="S5">
-        <v>0.03724124044700129</v>
+        <v>0.04461138168619423</v>
       </c>
       <c r="T5">
-        <v>0.03724124044700129</v>
+        <v>0.04461138168619423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="H6">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="I6">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="J6">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.208459423026426</v>
+        <v>0.237305</v>
       </c>
       <c r="N6">
-        <v>0.208459423026426</v>
+        <v>0.711915</v>
       </c>
       <c r="O6">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="P6">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="Q6">
-        <v>1.826675379509501</v>
+        <v>2.146889475613333</v>
       </c>
       <c r="R6">
-        <v>1.826675379509501</v>
+        <v>19.32200528052</v>
       </c>
       <c r="S6">
-        <v>0.01352524955967657</v>
+        <v>0.01511412711629679</v>
       </c>
       <c r="T6">
-        <v>0.01352524955967657</v>
+        <v>0.0151141271162968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="H7">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="I7">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="J7">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.5094222590766</v>
+        <v>14.58625866666667</v>
       </c>
       <c r="N7">
-        <v>14.5094222590766</v>
+        <v>43.758776</v>
       </c>
       <c r="O7">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="P7">
-        <v>0.948832654782835</v>
+        <v>0.9395940101697148</v>
       </c>
       <c r="Q7">
-        <v>127.1422707919637</v>
+        <v>131.9613376036764</v>
       </c>
       <c r="R7">
-        <v>127.1422707919637</v>
+        <v>1187.652038433088</v>
       </c>
       <c r="S7">
-        <v>0.941399310099116</v>
+        <v>0.9290093661709016</v>
       </c>
       <c r="T7">
-        <v>0.941399310099116</v>
+        <v>0.9290093661709017</v>
       </c>
     </row>
   </sheetData>
